--- a/TP Insa 2024/Liste Etudiants_3 FISA AE avec groupe TP 2024_2025.xlsx
+++ b/TP Insa 2024/Liste Etudiants_3 FISA AE avec groupe TP 2024_2025.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Reis\Desktop\TP Insa 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adosreis\Desktop\GitHub\reis-alex.github.io\TP Insa 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75BAE46F-72C5-43F3-8767-019A2E54AC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Liste_3FISA AE" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Liste_3FISA AE'!$A$13:$D$35</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t xml:space="preserve">Année scolaire : </t>
   </si>
@@ -219,8 +218,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,12 +281,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -687,19 +680,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1043,35 +1040,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A4:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1080,7 @@
       </c>
       <c r="D7" s="34"/>
     </row>
-    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
@@ -1095,7 +1092,7 @@
       </c>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -1107,13 +1104,13 @@
       </c>
       <c r="D9" s="34"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1125,7 +1122,7 @@
       </c>
       <c r="D11" s="26"/>
     </row>
-    <row r="13" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>4400427</v>
       </c>
@@ -1161,8 +1158,11 @@
       <c r="E14" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>4400108</v>
       </c>
@@ -1178,8 +1178,11 @@
       <c r="E15" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>4400728</v>
       </c>
@@ -1192,8 +1195,14 @@
       <c r="D16" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>4400467</v>
       </c>
@@ -1206,8 +1215,14 @@
       <c r="D17" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>4400611</v>
       </c>
@@ -1223,8 +1238,11 @@
       <c r="E18" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>4400612</v>
       </c>
@@ -1237,8 +1255,14 @@
       <c r="D19" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>4400550</v>
       </c>
@@ -1251,8 +1275,14 @@
       <c r="D20" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>4400329</v>
       </c>
@@ -1268,8 +1298,11 @@
       <c r="E21" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>4100118</v>
       </c>
@@ -1285,8 +1318,11 @@
       <c r="E22" s="37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>4400571</v>
       </c>
@@ -1302,8 +1338,11 @@
       <c r="E23" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>4400602</v>
       </c>
@@ -1319,8 +1358,11 @@
       <c r="E24" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>4400632</v>
       </c>
@@ -1336,8 +1378,11 @@
       <c r="E25" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>4400461</v>
       </c>
@@ -1353,8 +1398,11 @@
       <c r="E26" s="37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <v>4400674</v>
       </c>
@@ -1370,8 +1418,11 @@
       <c r="E27" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <v>4400686</v>
       </c>
@@ -1387,8 +1438,11 @@
       <c r="E28" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>4400619</v>
       </c>
@@ -1401,11 +1455,14 @@
       <c r="D29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>4400673</v>
       </c>
@@ -1418,8 +1475,14 @@
       <c r="D30" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>4400468</v>
       </c>
@@ -1435,8 +1498,11 @@
       <c r="E31" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>4400387</v>
       </c>
@@ -1452,8 +1518,11 @@
       <c r="E32" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>4400431</v>
       </c>
@@ -1469,8 +1538,11 @@
       <c r="E33" s="36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <v>4400566</v>
       </c>
@@ -1483,30 +1555,33 @@
       <c r="D34" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="33"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
       <c r="C37" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A13:D35" xr:uid="{25BE7D9E-ED4A-44BF-A7F2-F1E749C8C7B3}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:D35">
+  <autoFilter ref="A13:D35"/>
+  <sortState ref="A14:D35">
     <sortCondition ref="B14:B35"/>
     <sortCondition ref="C14:C35"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{C3960985-B345-4796-8164-394C5C5AA85E}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
